--- a/public/assets/templates/excels/orders-list.xlsx
+++ b/public/assets/templates/excels/orders-list.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worksheet'!$A$2:$C$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Worksheet'!$A$2:$C$8</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Danh sách đơn đặt hàng</t>
   </si>
@@ -31,64 +31,40 @@
     <t>Khách hàng</t>
   </si>
   <si>
-    <t>2023-04-07 00:26:36</t>
+    <t>2023-04-15 14:17:01</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2023-04-15 14:17:22</t>
   </si>
   <si>
     <t>vanhau</t>
   </si>
   <si>
-    <t>2023-04-07 00:27:09</t>
+    <t>2023-04-15 14:17:38</t>
   </si>
   <si>
     <t>vanly</t>
   </si>
   <si>
-    <t>2023-04-07 00:27:28</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>2023-04-07 00:27:44</t>
-  </si>
-  <si>
-    <t>2023-04-07 00:30:30</t>
-  </si>
-  <si>
-    <t>2023-04-07 00:30:53</t>
-  </si>
-  <si>
-    <t>2023-04-07 00:31:23</t>
-  </si>
-  <si>
-    <t>2023-04-07 00:33:00</t>
-  </si>
-  <si>
-    <t>2023-04-07 00:34:09</t>
-  </si>
-  <si>
-    <t>2023-04-07 00:34:52</t>
-  </si>
-  <si>
-    <t>2023-04-07 00:36:31</t>
-  </si>
-  <si>
-    <t>2023-04-07 01:11:31</t>
-  </si>
-  <si>
-    <t>2023-04-07 09:13:09</t>
-  </si>
-  <si>
-    <t>2023-04-07 16:23:02</t>
-  </si>
-  <si>
-    <t>2023-04-07 16:26:50</t>
-  </si>
-  <si>
-    <t>anhthu</t>
-  </si>
-  <si>
-    <t>2023-04-10 16:54:04</t>
+    <t>2023-04-15 14:17:53</t>
+  </si>
+  <si>
+    <t>congphuong</t>
+  </si>
+  <si>
+    <t>2023-04-15 14:18:15</t>
+  </si>
+  <si>
+    <t>vanhoang3</t>
+  </si>
+  <si>
+    <t>anhthu2</t>
+  </si>
+  <si>
+    <t>2023-04-15 14:18:42</t>
   </si>
 </sst>
 </file>
@@ -472,10 +448,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:C18"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -504,7 +480,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -515,7 +491,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -526,7 +502,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -537,152 +513,42 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3">
-        <v>37</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4">
-        <v>38</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3">
-        <v>39</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4">
-        <v>40</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3">
-        <v>41</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3">
-        <v>43</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4">
-        <v>44</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3">
-        <v>45</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4">
-        <v>46</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19"/>
+      <c r="C9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C18"/>
+  <autoFilter ref="A2:C8"/>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
